--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C45540-291B-4395-8A75-B7C6CF342CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E748DD-185B-4951-A2BF-A9B1E8D1FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,18 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENTITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FIELD_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,18 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENTITY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nop-file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,6 +485,26 @@
   </si>
   <si>
     <t>删除标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizObjName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_OBJ_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizObjId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_OBJ_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1226,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>53</v>
@@ -1241,7 +1237,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>63</v>
@@ -1252,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
@@ -1274,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1734,7 +1730,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1756,7 @@
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -1783,7 +1779,7 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1792,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -1931,14 +1927,14 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -1962,14 +1958,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
@@ -1991,14 +1987,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -2022,14 +2018,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
@@ -2051,14 +2047,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -2082,14 +2078,14 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -2109,14 +2105,14 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
@@ -2136,14 +2132,14 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -2165,14 +2161,14 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
@@ -2194,11 +2190,11 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>2</v>
@@ -2223,16 +2219,16 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>67</v>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E748DD-185B-4951-A2BF-A9B1E8D1FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C05529B-CE26-4FC2-9CE0-64101332B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>BIZ_OBJ_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_HASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件摘要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A8" sqref="A8:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2219,27 +2231,23 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <v>200</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="5"/>
@@ -2252,27 +2260,27 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="5">
-        <v>50</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
@@ -2285,25 +2293,27 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="5">
+        <v>50</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
@@ -2316,65 +2326,96 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5">
-        <v>200</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <v>200</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C05529B-CE26-4FC2-9CE0-64101332B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63F6BE-2437-4A43-82F4-8EC65C8D9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,10 @@
   </si>
   <si>
     <t>文件摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,7 +1746,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1937,7 +1941,9 @@
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>89</v>
       </c>
@@ -1997,7 +2003,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>95</v>
       </c>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63F6BE-2437-4A43-82F4-8EC65C8D9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A88EF-D143-4460-A6F3-CC1EF23652E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,10 @@
   </si>
   <si>
     <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1750,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1823,9 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1962,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="5">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A88EF-D143-4460-A6F3-CC1EF23652E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FE38A-0A88-43A0-8408-9E9DB911EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,22 @@
   </si>
   <si>
     <t>gid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN_FILE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original File ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始文件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始文件ID，用于跟踪哪些文件是从同一个文件复制而来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2274,30 +2290,30 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="5">
+        <v>50</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2307,27 +2323,27 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5">
-        <v>50</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
@@ -2340,25 +2356,27 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="5">
+        <v>50</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
@@ -2371,65 +2389,96 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5">
-        <v>200</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="5">
+        <v>200</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FE38A-0A88-43A0-8408-9E9DB911EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A3DAC-4C51-41D8-AB47-B7F2E4CFB50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,22 @@
   </si>
   <si>
     <t>原始文件ID，用于跟踪哪些文件是从同一个文件复制而来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PUBLIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许公开访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A19" sqref="A19:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2323,25 +2339,21 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -2356,27 +2368,27 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5">
-        <v>50</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
@@ -2389,25 +2401,27 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <v>50</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
@@ -2420,65 +2434,96 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="5">
-        <v>200</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5">
+        <v>200</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
       <c r="N24" s="5"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>

--- a/nop-file/model/nop-file.orm.xlsx
+++ b/nop-file/model/nop-file.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-file\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A3DAC-4C51-41D8-AB47-B7F2E4CFB50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDF0BF-B825-4B7E-B332-84A5CCA42B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1782,7 +1782,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A24"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2217,7 +2217,9 @@
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>118</v>
       </c>
@@ -2304,7 +2306,9 @@
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>124</v>
       </c>
